--- a/database.xlsx
+++ b/database.xlsx
@@ -434,10 +434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -445,7 +445,8 @@
     <col width="14.54296875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11.6328125" customWidth="1" min="6" max="6"/>
+    <col width="12.453125" customWidth="1" min="4" max="4"/>
+    <col width="14.36328125" customWidth="1" min="6" max="6"/>
     <col width="11.08984375" customWidth="1" min="7" max="7"/>
     <col width="17.08984375" customWidth="1" min="8" max="8"/>
     <col width="10.453125" customWidth="1" min="9" max="9"/>
@@ -455,57 +456,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Вид справки</t>
+          <t>TypeCertificate</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Номер билета</t>
+          <t>NumberTicket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Маршрут следования</t>
+          <t>Itinerary</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Фамилия</t>
+          <t>LastName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Имя</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Отчество</t>
+          <t>Surname</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Паспорт</t>
+          <t>Passport</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Выдающий орган</t>
+          <t>IssuingAuthority</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Телефон</t>
+          <t>Telephone</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Почта</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ФИО получателя</t>
+          <t>RecipientName</t>
         </is>
       </c>
     </row>
@@ -563,6 +564,63 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>Кузнецова Дарья Владимировна</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>вамв</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ымва</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>кыпык</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ыпек</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ыкепик</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ыпык</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>упыке</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ыепыке</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ыкпкеп</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ыепыке</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -624,6 +624,348 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>efavefr</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dfsfa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Afwefae</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aergferf</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12 22 222222</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>asfrf</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+7 (999) 999-9999</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>dedsawesd</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>sdfdfef</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>122333</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asfaerfe</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fgsedrf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aerfaer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Argfegr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>22 22 222222</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>avfesrf</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>+7 (999) 999-9999</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ergdxg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ergerg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Grsdrgdr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Defsef</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Srfaesfr</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fergeg</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wefawef</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Wefawef</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Warfe</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Afeawf</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Wafea</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Arfae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wfaefr</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aergferf</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aergeg</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Справка1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dzfvdf</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dfvdfv</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dfved</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>+7 () -</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
